--- a/documentos/plantillas/plantillaReporteTareo.xlsx
+++ b/documentos/plantillas/plantillaReporteTareo.xlsx
@@ -175,6 +175,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -255,25 +256,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -941,212 +958,225 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AR6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048549" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="7" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="7" style="1" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="38" style="3" width="5.11"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AI6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AJ6" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AN6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AP6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AQ6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1162,8 +1192,6 @@
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
     <cfRule type="duplicateValues" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
     <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
     <cfRule type="duplicateValues" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7"/>
@@ -1186,45 +1214,27 @@
     <cfRule type="duplicateValues" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24"/>
     <cfRule type="duplicateValues" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25"/>
     <cfRule type="duplicateValues" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
     <cfRule type="duplicateValues" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27"/>
     <cfRule type="duplicateValues" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32"/>
     <cfRule type="duplicateValues" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33"/>
     <cfRule type="duplicateValues" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34"/>
     <cfRule type="duplicateValues" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35"/>
     <cfRule type="duplicateValues" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36"/>
     <cfRule type="duplicateValues" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
     <cfRule type="duplicateValues" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39"/>
     <cfRule type="duplicateValues" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
     <cfRule type="duplicateValues" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41"/>
     <cfRule type="duplicateValues" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
     <cfRule type="duplicateValues" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
     <cfRule type="duplicateValues" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44"/>
     <cfRule type="duplicateValues" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
     <cfRule type="duplicateValues" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">

--- a/documentos/plantillas/plantillaReporteTareo.xlsx
+++ b/documentos/plantillas/plantillaReporteTareo.xlsx
@@ -274,7 +274,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -960,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048549" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7:D1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
